--- a/server/test.xlsx
+++ b/server/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiluo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\pep\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE003AC2-A697-4E01-B98B-1EB7B09004E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E3988-DFCF-4DE1-B36F-330D5B6DAE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>刘继坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段霁航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王跃霖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何志强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="462">
   <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,15 +35,1384 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>车可行</t>
+  </si>
+  <si>
+    <t>麦龙泉</t>
+  </si>
+  <si>
+    <t>何志强</t>
+  </si>
+  <si>
+    <t>栗源洁</t>
+  </si>
+  <si>
+    <t>李鹏</t>
+  </si>
+  <si>
+    <t>冯鑫宇</t>
+  </si>
+  <si>
+    <t>杨晨</t>
+  </si>
+  <si>
+    <t>刘继坤</t>
+  </si>
+  <si>
+    <t>原孝添</t>
+  </si>
+  <si>
+    <t>赵玉京</t>
+  </si>
+  <si>
+    <t>李中华</t>
+  </si>
+  <si>
+    <t>冉泓遥</t>
+  </si>
+  <si>
+    <t>侯子童</t>
+  </si>
+  <si>
+    <t>吴远航</t>
+  </si>
+  <si>
+    <t>翁岗翔</t>
+  </si>
+  <si>
+    <t>高龙飞</t>
+  </si>
+  <si>
+    <t>曾继开</t>
+  </si>
+  <si>
+    <t>李子恒</t>
+  </si>
+  <si>
+    <t>吕婧玮</t>
+  </si>
+  <si>
+    <t>吴乐涵</t>
+  </si>
+  <si>
+    <t>刘明陇</t>
+  </si>
+  <si>
+    <t>凤禧</t>
+  </si>
+  <si>
+    <t>陈仕博</t>
+  </si>
+  <si>
+    <t>李文愉</t>
+  </si>
+  <si>
+    <t>杜浩玮</t>
+  </si>
+  <si>
+    <t>车冠辰</t>
+  </si>
+  <si>
+    <t>李瑞永</t>
+  </si>
+  <si>
+    <t>姚天宇</t>
+  </si>
+  <si>
+    <t>王鹏晔</t>
+  </si>
+  <si>
+    <t>张丹丹</t>
+  </si>
+  <si>
+    <t>张力文</t>
+  </si>
+  <si>
+    <t>刘涛</t>
+  </si>
+  <si>
+    <t>吕晓涵</t>
+  </si>
+  <si>
+    <t>孙伟豪</t>
+  </si>
+  <si>
+    <t>蔡超</t>
+  </si>
+  <si>
+    <t>李忠智</t>
+  </si>
+  <si>
+    <t>李明威</t>
+  </si>
+  <si>
+    <t>魏蔓渝</t>
+  </si>
+  <si>
+    <t>关淞淋</t>
+  </si>
+  <si>
+    <t>王继贤</t>
+  </si>
+  <si>
+    <t>孙文礼</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>邵昱霖</t>
+  </si>
+  <si>
+    <t>李恩泽</t>
+  </si>
+  <si>
+    <t>赵渝</t>
+  </si>
+  <si>
+    <t>王苏然</t>
+  </si>
+  <si>
+    <t>何雨泊</t>
+  </si>
+  <si>
+    <t>李勃然</t>
+  </si>
+  <si>
+    <t>张吉伟</t>
+  </si>
+  <si>
+    <t>章雯嘉</t>
+  </si>
+  <si>
+    <t>王莹</t>
+  </si>
+  <si>
+    <t>潘奥南</t>
+  </si>
+  <si>
+    <t>马姣姣</t>
+  </si>
+  <si>
+    <t>任永强</t>
+  </si>
+  <si>
+    <t>杨嘉维</t>
+  </si>
+  <si>
+    <t>李思源</t>
+  </si>
+  <si>
+    <t>田涵宇</t>
+  </si>
+  <si>
+    <t>刘双睿</t>
+  </si>
+  <si>
+    <t>许佳廷</t>
+  </si>
+  <si>
+    <t>张君昊</t>
+  </si>
+  <si>
+    <t>高尊</t>
+  </si>
+  <si>
+    <t>韩存治</t>
+  </si>
+  <si>
+    <t>唐玉尧</t>
+  </si>
+  <si>
+    <t>原佳韫</t>
+  </si>
+  <si>
+    <t>李双双</t>
+  </si>
+  <si>
+    <t>詹子默</t>
+  </si>
+  <si>
+    <t>李璐瑜</t>
+  </si>
+  <si>
+    <t>刘士君</t>
+  </si>
+  <si>
+    <t>王晨</t>
+  </si>
+  <si>
+    <t>佟凯</t>
+  </si>
+  <si>
+    <t>李泽霖</t>
+  </si>
+  <si>
+    <t>郑钰山</t>
+  </si>
+  <si>
+    <t>赵旭</t>
+  </si>
+  <si>
+    <t>田雨晴</t>
+  </si>
+  <si>
+    <t>刘上</t>
+  </si>
+  <si>
+    <t>张赵智康</t>
+  </si>
+  <si>
+    <t>武爱琳</t>
+  </si>
+  <si>
+    <t>王烽宇</t>
+  </si>
+  <si>
+    <t>王瀚兴</t>
+  </si>
+  <si>
+    <t>曹健玮</t>
+  </si>
+  <si>
+    <t>邢宇航</t>
+  </si>
+  <si>
+    <t>夏于昊</t>
+  </si>
+  <si>
+    <t>谭旭梅</t>
+  </si>
+  <si>
+    <t>韩建欣</t>
+  </si>
+  <si>
+    <t>侯海林</t>
+  </si>
+  <si>
+    <t>张鋆枻</t>
+  </si>
+  <si>
+    <t>张瑞</t>
+  </si>
+  <si>
+    <t>安勃睿</t>
+  </si>
+  <si>
+    <t>吴景超</t>
+  </si>
+  <si>
+    <t>吴昌元</t>
+  </si>
+  <si>
+    <t>陈盈诺</t>
+  </si>
+  <si>
+    <t>孙浦杰</t>
+  </si>
+  <si>
+    <t>崔晨阳</t>
+  </si>
+  <si>
+    <t>刘欣奇</t>
+  </si>
+  <si>
+    <t>沈瑞</t>
+  </si>
+  <si>
+    <t>严峰</t>
+  </si>
+  <si>
+    <t>佟赛楠</t>
+  </si>
+  <si>
+    <t>汪恒辉</t>
+  </si>
+  <si>
+    <t>刘岩</t>
+  </si>
+  <si>
+    <t>王志坤</t>
+  </si>
+  <si>
+    <t>黄远鹏</t>
+  </si>
+  <si>
+    <t>杨智浩</t>
+  </si>
+  <si>
+    <t>刘浩</t>
+  </si>
+  <si>
+    <t>刘佳文</t>
+  </si>
+  <si>
+    <t>陈衍豪</t>
+  </si>
+  <si>
+    <t>陈家淞</t>
+  </si>
+  <si>
+    <t>张晓彤</t>
+  </si>
+  <si>
+    <t>徐松旭</t>
+  </si>
+  <si>
+    <t>耿声霖</t>
+  </si>
+  <si>
+    <t>王紫阳</t>
+  </si>
+  <si>
+    <t>单丙震</t>
+  </si>
+  <si>
+    <t>由鹏业</t>
+  </si>
+  <si>
+    <t>王昕煜</t>
+  </si>
+  <si>
+    <t>白嘉伟</t>
+  </si>
+  <si>
+    <t>马明宇</t>
+  </si>
+  <si>
+    <t>孟祥辉</t>
+  </si>
+  <si>
+    <t>王义仁</t>
+  </si>
+  <si>
+    <t>李梦圆</t>
+  </si>
+  <si>
+    <t>赵奕</t>
+  </si>
+  <si>
+    <t>鲁美辰</t>
+  </si>
+  <si>
+    <t>赵仁杰</t>
+  </si>
+  <si>
+    <t>曹方旭</t>
+  </si>
+  <si>
+    <t>王冠舒</t>
+  </si>
+  <si>
+    <t>于京淞</t>
+  </si>
+  <si>
+    <t>余金宇</t>
+  </si>
+  <si>
+    <t>曹永杰</t>
+  </si>
+  <si>
+    <t>周斐然</t>
+  </si>
+  <si>
+    <t>张玉山</t>
+  </si>
+  <si>
+    <t>郑明洋</t>
+  </si>
+  <si>
+    <t>王炫浦</t>
+  </si>
+  <si>
+    <t>侯越凡</t>
+  </si>
+  <si>
+    <t>于少瑞</t>
+  </si>
+  <si>
+    <t>田景</t>
+  </si>
+  <si>
+    <t>慕升升</t>
+  </si>
+  <si>
+    <t>董栖文</t>
+  </si>
+  <si>
+    <t>张晶晶</t>
+  </si>
+  <si>
+    <t>任思宇</t>
+  </si>
+  <si>
+    <t>丛璐</t>
+  </si>
+  <si>
+    <t>吴佳琪</t>
+  </si>
+  <si>
+    <t>苏豫轩</t>
+  </si>
+  <si>
+    <t>李晶</t>
+  </si>
+  <si>
+    <t>刘金岐</t>
+  </si>
+  <si>
+    <t>谢辉</t>
+  </si>
+  <si>
+    <t>陈佳茂</t>
+  </si>
+  <si>
+    <t>燕卓</t>
+  </si>
+  <si>
+    <t>顾吉超</t>
+  </si>
+  <si>
+    <t>隋智如</t>
+  </si>
+  <si>
+    <t>裴旺龙</t>
+  </si>
+  <si>
+    <t>肖添洋</t>
+  </si>
+  <si>
+    <t>马少毅</t>
+  </si>
+  <si>
+    <t>胡智鹏</t>
+  </si>
+  <si>
+    <t>孙子晴</t>
+  </si>
+  <si>
+    <t>邹宇鹏</t>
+  </si>
+  <si>
+    <t>张子涵</t>
+  </si>
+  <si>
+    <t>张浩成</t>
+  </si>
+  <si>
+    <t>蒋明沅</t>
+  </si>
+  <si>
+    <t>王可心</t>
+  </si>
+  <si>
+    <t>关宏飞</t>
+  </si>
+  <si>
+    <t>汤万鹏</t>
+  </si>
+  <si>
+    <t>常志强</t>
+  </si>
+  <si>
+    <t>李侠洋</t>
+  </si>
+  <si>
+    <t>夏凡</t>
+  </si>
+  <si>
+    <t>崔泽山</t>
+  </si>
+  <si>
+    <t>岳延祥</t>
+  </si>
+  <si>
+    <t>杨洁</t>
+  </si>
+  <si>
+    <t>宋英豪</t>
+  </si>
+  <si>
+    <t>刁淑贤</t>
+  </si>
+  <si>
+    <t>胡育玮</t>
+  </si>
+  <si>
+    <t>王燚</t>
+  </si>
+  <si>
+    <t>童子铭</t>
+  </si>
+  <si>
+    <t>史晨曦</t>
+  </si>
+  <si>
+    <t>程亚强</t>
+  </si>
+  <si>
+    <t>陈帅冬</t>
+  </si>
+  <si>
+    <t>李诗瑶</t>
+  </si>
+  <si>
+    <t>杜迪</t>
+  </si>
+  <si>
+    <t>彭秋实</t>
+  </si>
+  <si>
+    <t>徐晖瀚</t>
+  </si>
+  <si>
+    <t>薄佳怡</t>
+  </si>
+  <si>
+    <t>尹圣淼</t>
+  </si>
+  <si>
+    <t>宋成前</t>
+  </si>
+  <si>
+    <t>宋一凡</t>
+  </si>
+  <si>
+    <t>段霁航</t>
+  </si>
+  <si>
+    <t>张恒玮</t>
+  </si>
+  <si>
+    <t>李文洋</t>
+  </si>
+  <si>
+    <t>李路棒</t>
+  </si>
+  <si>
+    <t>赖正辉</t>
+  </si>
+  <si>
+    <t>孟志勇</t>
+  </si>
+  <si>
+    <t>王雪宁</t>
+  </si>
+  <si>
+    <t>刘同鑫</t>
+  </si>
+  <si>
+    <t>唐海涵</t>
+  </si>
+  <si>
+    <t>常子健</t>
+  </si>
+  <si>
+    <t>刘昉旭</t>
+  </si>
+  <si>
+    <t>王一鹏</t>
+  </si>
+  <si>
+    <t>徐同泽</t>
+  </si>
+  <si>
+    <t>国嘉霖</t>
+  </si>
+  <si>
+    <t>王樱洁</t>
+  </si>
+  <si>
+    <t>张明迪</t>
+  </si>
+  <si>
+    <t>程文龙</t>
+  </si>
+  <si>
+    <t>杨清明</t>
+  </si>
+  <si>
+    <t>赵书官</t>
+  </si>
+  <si>
+    <t>陈格夫</t>
+  </si>
+  <si>
+    <t>张凯菠</t>
+  </si>
+  <si>
+    <t>孙婷婷</t>
+  </si>
+  <si>
+    <t>徐振展</t>
+  </si>
+  <si>
+    <t>程渤惟</t>
+  </si>
+  <si>
+    <t>陈鑫星</t>
+  </si>
+  <si>
+    <t>张祥祎</t>
+  </si>
+  <si>
+    <t>高正龙</t>
+  </si>
+  <si>
+    <t>赵泓然</t>
+  </si>
+  <si>
+    <t>谷文文</t>
+  </si>
+  <si>
+    <t>吴雨梁</t>
+  </si>
+  <si>
+    <t>郭玉旗</t>
+  </si>
+  <si>
+    <t>孙鸿垚</t>
+  </si>
+  <si>
+    <t>杨国钢</t>
+  </si>
+  <si>
+    <t>姜海鑫</t>
+  </si>
+  <si>
+    <t>莫昊然</t>
+  </si>
+  <si>
+    <t>王志东</t>
+  </si>
+  <si>
+    <t>梁志鹏</t>
+  </si>
+  <si>
+    <t>石继壬</t>
+  </si>
+  <si>
+    <t>李伟泉</t>
+  </si>
+  <si>
+    <t>蔡景贵</t>
+  </si>
+  <si>
+    <t>韩源</t>
+  </si>
+  <si>
+    <t>方蕊</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>183401010323</t>
+  </si>
+  <si>
+    <t>183401010125</t>
+  </si>
+  <si>
+    <t>183406010330</t>
+  </si>
+  <si>
+    <t>183401010201</t>
+  </si>
+  <si>
+    <t>173401010125</t>
+  </si>
+  <si>
+    <t>183401010233</t>
+  </si>
+  <si>
+    <t>183401050121</t>
+  </si>
+  <si>
+    <t>183411010125</t>
+  </si>
+  <si>
+    <t>183401010109</t>
+  </si>
+  <si>
+    <t>183401050216</t>
+  </si>
+  <si>
+    <t>183401010331</t>
+  </si>
+  <si>
+    <t>183401010305</t>
+  </si>
+  <si>
+    <t>183401050123</t>
+  </si>
+  <si>
+    <t>183401010325</t>
+  </si>
+  <si>
+    <t>183401010413</t>
+  </si>
+  <si>
+    <t>183401050213</t>
+  </si>
+  <si>
+    <t>183401010429</t>
+  </si>
+  <si>
+    <t>183401010422</t>
+  </si>
+  <si>
+    <t>183401010304</t>
+  </si>
+  <si>
+    <t>183401010219</t>
+  </si>
+  <si>
+    <t>183401010309</t>
+  </si>
+  <si>
+    <t>183401050122</t>
+  </si>
+  <si>
+    <t>183407010220</t>
+  </si>
+  <si>
+    <t>183401050208</t>
+  </si>
+  <si>
+    <t>163401010211</t>
+  </si>
+  <si>
+    <t>183401010313</t>
+  </si>
+  <si>
+    <t>183401050221</t>
+  </si>
+  <si>
+    <t>183401010113</t>
+  </si>
+  <si>
+    <t>183401050109</t>
+  </si>
+  <si>
+    <t>183401010306</t>
+  </si>
+  <si>
+    <t>183401010107</t>
+  </si>
+  <si>
+    <t>163401010224</t>
+  </si>
+  <si>
+    <t>183401050103</t>
+  </si>
+  <si>
+    <t>183401010210</t>
+  </si>
+  <si>
+    <t>173401010529</t>
+  </si>
+  <si>
+    <t>183414020114</t>
+  </si>
+  <si>
+    <t>183401010216</t>
+  </si>
+  <si>
+    <t>183401010103</t>
+  </si>
+  <si>
+    <t>183401010133</t>
+  </si>
+  <si>
+    <t>183401010326</t>
+  </si>
+  <si>
+    <t>183401010110</t>
+  </si>
+  <si>
+    <t>183401010330</t>
+  </si>
+  <si>
+    <t>183401050113</t>
+  </si>
+  <si>
+    <t>183401010132</t>
+  </si>
+  <si>
+    <t>183411020226</t>
+  </si>
+  <si>
+    <t>183401010104</t>
+  </si>
+  <si>
+    <t>183401050120</t>
+  </si>
+  <si>
+    <t>183401010121</t>
+  </si>
+  <si>
+    <t>183401010415</t>
+  </si>
+  <si>
+    <t>183401010203</t>
+  </si>
+  <si>
+    <t>183401050206</t>
+  </si>
+  <si>
+    <t>183401010418</t>
+  </si>
+  <si>
+    <t>183401050105</t>
+  </si>
+  <si>
+    <t>183401010430</t>
+  </si>
+  <si>
+    <t>183401050125</t>
+  </si>
+  <si>
+    <t>183401050104</t>
+  </si>
+  <si>
+    <t>173401010321</t>
+  </si>
+  <si>
+    <t>183401010115</t>
+  </si>
+  <si>
+    <t>183401010126</t>
+  </si>
+  <si>
+    <t>183401010232</t>
+  </si>
+  <si>
+    <t>183401050226</t>
+  </si>
+  <si>
+    <t>183401010432</t>
+  </si>
+  <si>
+    <t>183409010213</t>
+  </si>
+  <si>
+    <t>183408020118</t>
+  </si>
+  <si>
+    <t>173401010306</t>
+  </si>
+  <si>
+    <t>183401010316</t>
+  </si>
+  <si>
+    <t>183401010423</t>
+  </si>
+  <si>
+    <t>183401050112</t>
+  </si>
+  <si>
+    <t>183401010124</t>
+  </si>
+  <si>
+    <t>183401050114</t>
+  </si>
+  <si>
+    <t>163401010216</t>
+  </si>
+  <si>
+    <t>183401010127</t>
+  </si>
+  <si>
+    <t>183401010222</t>
+  </si>
+  <si>
+    <t>183401010102</t>
+  </si>
+  <si>
+    <t>183424080320</t>
+  </si>
+  <si>
+    <t>183401010123</t>
+  </si>
+  <si>
+    <t>183401010406</t>
+  </si>
+  <si>
+    <t>163401010232</t>
+  </si>
+  <si>
+    <t>183405010224</t>
+  </si>
+  <si>
+    <t>173401010414</t>
+  </si>
+  <si>
+    <t>183401010419</t>
+  </si>
+  <si>
+    <t>183401050209</t>
+  </si>
+  <si>
+    <t>183401010404</t>
+  </si>
+  <si>
+    <t>183401010332</t>
+  </si>
+  <si>
+    <t>183401010206</t>
+  </si>
+  <si>
+    <t>183401050116</t>
+  </si>
+  <si>
+    <t>183401050110</t>
+  </si>
+  <si>
+    <t>183401010411</t>
+  </si>
+  <si>
+    <t>183401050111</t>
+  </si>
+  <si>
+    <t>183401010321</t>
+  </si>
+  <si>
+    <t>183401050201</t>
+  </si>
+  <si>
+    <t>183401010224</t>
+  </si>
+  <si>
+    <t>183401050217</t>
+  </si>
+  <si>
+    <t>183401010416</t>
+  </si>
+  <si>
+    <t>173401010220</t>
+  </si>
+  <si>
+    <t>183401010130</t>
+  </si>
+  <si>
+    <t>183401010106</t>
+  </si>
+  <si>
+    <t>183401050118</t>
+  </si>
+  <si>
+    <t>183401010402</t>
+  </si>
+  <si>
+    <t>183401010409</t>
+  </si>
+  <si>
+    <t>183401050225</t>
+  </si>
+  <si>
+    <t>183401050117</t>
+  </si>
+  <si>
+    <t>173401010320</t>
+  </si>
+  <si>
+    <t>183401010403</t>
+  </si>
+  <si>
+    <t>183406030223</t>
+  </si>
+  <si>
+    <t>183401010211</t>
+  </si>
+  <si>
+    <t>183401050203</t>
+  </si>
+  <si>
+    <t>183401050207</t>
+  </si>
+  <si>
+    <t>183401010408</t>
+  </si>
+  <si>
+    <t>183401010427</t>
+  </si>
+  <si>
+    <t>183401050228</t>
+  </si>
+  <si>
+    <t>183401050212</t>
+  </si>
+  <si>
+    <t>183401050229</t>
+  </si>
+  <si>
+    <t>183401010307</t>
+  </si>
+  <si>
+    <t>183401050220</t>
+  </si>
+  <si>
+    <t>183406040313</t>
+  </si>
+  <si>
+    <t>183401010213</t>
+  </si>
+  <si>
+    <t>183401050215</t>
+  </si>
+  <si>
+    <t>183401010412</t>
+  </si>
+  <si>
+    <t>183401010312</t>
+  </si>
+  <si>
+    <t>183401050224</t>
+  </si>
+  <si>
+    <t>183401010317</t>
+  </si>
+  <si>
+    <t>183401010120</t>
+  </si>
+  <si>
+    <t>183401010116</t>
+  </si>
+  <si>
+    <t>183401010227</t>
+  </si>
+  <si>
+    <t>183401010131</t>
+  </si>
+  <si>
+    <t>183401010101</t>
+  </si>
+  <si>
+    <t>183401010231</t>
+  </si>
+  <si>
+    <t>183401010225</t>
+  </si>
+  <si>
+    <t>183401010122</t>
+  </si>
+  <si>
+    <t>183401050129</t>
+  </si>
+  <si>
+    <t>183401010318</t>
+  </si>
+  <si>
+    <t>183401010212</t>
+  </si>
+  <si>
+    <t>183401060127</t>
+  </si>
+  <si>
+    <t>153401010234</t>
+  </si>
+  <si>
+    <t>183401010105</t>
+  </si>
+  <si>
+    <t>183401010303</t>
+  </si>
+  <si>
+    <t>183401010401</t>
+  </si>
+  <si>
+    <t>183406010501</t>
+  </si>
+  <si>
+    <t>173401010319</t>
+  </si>
+  <si>
+    <t>183401050107</t>
+  </si>
+  <si>
+    <t>183401050108</t>
+  </si>
+  <si>
+    <t>183401050219</t>
+  </si>
+  <si>
+    <t>183401010118</t>
+  </si>
+  <si>
+    <t>183401010327</t>
+  </si>
+  <si>
+    <t>183401010215</t>
+  </si>
+  <si>
+    <t>183408020113</t>
+  </si>
+  <si>
+    <t>183401010328</t>
+  </si>
+  <si>
+    <t>183401010407</t>
+  </si>
+  <si>
+    <t>183401010220</t>
+  </si>
+  <si>
+    <t>183401010234</t>
+  </si>
+  <si>
+    <t>183401050101</t>
+  </si>
+  <si>
+    <t>183401010310</t>
+  </si>
+  <si>
+    <t>173401010209</t>
+  </si>
+  <si>
+    <t>183401010428</t>
+  </si>
+  <si>
+    <t>183401010311</t>
+  </si>
+  <si>
+    <t>163401010507</t>
+  </si>
+  <si>
+    <t>183401050230</t>
+  </si>
+  <si>
+    <t>183401010431</t>
+  </si>
+  <si>
+    <t>183401010322</t>
+  </si>
+  <si>
+    <t>183401010333</t>
+  </si>
+  <si>
+    <t>183401050204</t>
+  </si>
+  <si>
+    <t>183401050119</t>
+  </si>
+  <si>
+    <t>183401010329</t>
+  </si>
+  <si>
+    <t>183401050106</t>
+  </si>
+  <si>
+    <t>183401010319</t>
+  </si>
+  <si>
+    <t>183401010205</t>
+  </si>
+  <si>
+    <t>183401050115</t>
+  </si>
+  <si>
+    <t>183401010417</t>
+  </si>
+  <si>
+    <t>173401010405</t>
+  </si>
+  <si>
+    <t>183401010301</t>
+  </si>
+  <si>
+    <t>173401010122</t>
+  </si>
+  <si>
+    <t>183401010221</t>
+  </si>
+  <si>
+    <t>183401010204</t>
+  </si>
+  <si>
+    <t>183401010302</t>
+  </si>
+  <si>
+    <t>173401010425</t>
+  </si>
+  <si>
+    <t>183401010425</t>
+  </si>
+  <si>
+    <t>183401010202</t>
+  </si>
+  <si>
+    <t>183406010905</t>
+  </si>
+  <si>
+    <t>183401050126</t>
+  </si>
+  <si>
+    <t>183408020114</t>
+  </si>
+  <si>
+    <t>183401010117</t>
+  </si>
+  <si>
+    <t>173401010528</t>
+  </si>
+  <si>
+    <t>183401050214</t>
+  </si>
+  <si>
+    <t>183401010420</t>
+  </si>
+  <si>
+    <t>183401010119</t>
+  </si>
+  <si>
+    <t>183401010218</t>
+  </si>
+  <si>
+    <t>183401050102</t>
+  </si>
+  <si>
+    <t>173401010309</t>
+  </si>
+  <si>
+    <t>183401050218</t>
+  </si>
+  <si>
+    <t>183401010151</t>
+  </si>
+  <si>
+    <t>183407010318</t>
+  </si>
+  <si>
+    <t>173401010113</t>
+  </si>
+  <si>
+    <t>183401010410</t>
+  </si>
+  <si>
+    <t>183401010308</t>
+  </si>
+  <si>
+    <t>183408100209</t>
+  </si>
+  <si>
+    <t>183401010114</t>
+  </si>
+  <si>
+    <t>183401050124</t>
+  </si>
+  <si>
+    <t>183401010223</t>
+  </si>
+  <si>
+    <t>183401010217</t>
+  </si>
+  <si>
+    <t>183401040111</t>
+  </si>
+  <si>
+    <t>183401010214</t>
+  </si>
+  <si>
+    <t>183401010207</t>
+  </si>
+  <si>
+    <t>183401010320</t>
+  </si>
+  <si>
+    <t>183401010209</t>
+  </si>
+  <si>
+    <t>183401010324</t>
+  </si>
+  <si>
+    <t>183401050128</t>
+  </si>
+  <si>
+    <t>183401010229</t>
+  </si>
+  <si>
+    <t>183401010433</t>
+  </si>
+  <si>
+    <t>183401010108</t>
+  </si>
+  <si>
+    <t>183401010226</t>
+  </si>
+  <si>
+    <t>183401010421</t>
+  </si>
+  <si>
+    <t>183401010208</t>
+  </si>
+  <si>
+    <t>183401010314</t>
+  </si>
+  <si>
+    <t>183401010111</t>
+  </si>
+  <si>
+    <t>183401010426</t>
+  </si>
+  <si>
+    <t>143401010326</t>
+  </si>
+  <si>
+    <t>183401050222</t>
+  </si>
+  <si>
+    <t>183401010405</t>
+  </si>
+  <si>
+    <t>183401050127</t>
+  </si>
+  <si>
+    <t>183401010112</t>
+  </si>
+  <si>
+    <t>183401010414</t>
+  </si>
+  <si>
+    <t>183401050205</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>计算机1803</t>
+  </si>
+  <si>
+    <t>计算机1801</t>
+  </si>
+  <si>
     <t>软件1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010251X</t>
-  </si>
-  <si>
-    <t>1010251X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机1802</t>
+  </si>
+  <si>
+    <t>软件1802</t>
+  </si>
+  <si>
+    <t>计算机1804</t>
+  </si>
+  <si>
+    <t>计算机1705</t>
+  </si>
+  <si>
+    <t>计算机1703</t>
+  </si>
+  <si>
+    <t>计算机1702</t>
+  </si>
+  <si>
+    <t>计算机1704</t>
+  </si>
+  <si>
+    <t>计算机1701</t>
   </si>
 </sst>
 </file>
@@ -404,118 +1741,3824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="L210" sqref="L210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>183411010125</v>
+        <v>451</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
       </c>
       <c r="E2">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>183411010125</v>
+        <v>452</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
       </c>
       <c r="E3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>183411010125</v>
+        <v>453</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>183411010125</v>
+        <v>454</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
       </c>
       <c r="E5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>183411010125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>123456</v>
+      </c>
+      <c r="E12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>123456</v>
+      </c>
+      <c r="E13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>123456</v>
+      </c>
+      <c r="E14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>123456</v>
+      </c>
+      <c r="E16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>123456</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>123456</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>123456</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>123456</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>123456</v>
+      </c>
+      <c r="E23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>123456</v>
+      </c>
+      <c r="E24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>123456</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>123456</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>123456</v>
+      </c>
+      <c r="E27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>123456</v>
+      </c>
+      <c r="E28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>123456</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>123456</v>
+      </c>
+      <c r="E30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>123456</v>
+      </c>
+      <c r="E31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>123456</v>
+      </c>
+      <c r="E33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>123456</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>123456</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>123456</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>123456</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>123456</v>
+      </c>
+      <c r="E40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>123456</v>
+      </c>
+      <c r="E41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>453</v>
+      </c>
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>123456</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>123456</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>123456</v>
+      </c>
+      <c r="E51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>123456</v>
+      </c>
+      <c r="E52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>123456</v>
+      </c>
+      <c r="E53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>123456</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>456</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>123456</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>123456</v>
+      </c>
+      <c r="E56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>453</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>123456</v>
+      </c>
+      <c r="E57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>458</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>123456</v>
+      </c>
+      <c r="E58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>452</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>123456</v>
+      </c>
+      <c r="E59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>123456</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>123456</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>123456</v>
+      </c>
+      <c r="E62">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>456</v>
+      </c>
+      <c r="B63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>123456</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>123456</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>123456</v>
+      </c>
+      <c r="E65">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>123456</v>
+      </c>
+      <c r="E66">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67">
+        <v>123456</v>
+      </c>
+      <c r="E67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68">
+        <v>123456</v>
+      </c>
+      <c r="E68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>123456</v>
+      </c>
+      <c r="E69">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70">
+        <v>123456</v>
+      </c>
+      <c r="E70">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>123456</v>
+      </c>
+      <c r="E71">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>454</v>
+      </c>
+      <c r="B72" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>123456</v>
+      </c>
+      <c r="E72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>123456</v>
+      </c>
+      <c r="E73">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>454</v>
+      </c>
+      <c r="B74" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>123456</v>
+      </c>
+      <c r="E74">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>123456</v>
+      </c>
+      <c r="E75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>451</v>
+      </c>
+      <c r="B76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>123456</v>
+      </c>
+      <c r="E76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>452</v>
+      </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>123456</v>
+      </c>
+      <c r="E77">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>123456</v>
+      </c>
+      <c r="E78">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>123456</v>
+      </c>
+      <c r="E79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>452</v>
+      </c>
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>123456</v>
+      </c>
+      <c r="E80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>123456</v>
+      </c>
+      <c r="E81">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>123456</v>
+      </c>
+      <c r="E82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83">
+        <v>123456</v>
+      </c>
+      <c r="E83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>456</v>
+      </c>
+      <c r="B84" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84">
+        <v>123456</v>
+      </c>
+      <c r="E84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>451</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>123456</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86">
+        <v>123456</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>453</v>
+      </c>
+      <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>123456</v>
+      </c>
+      <c r="E87">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>453</v>
+      </c>
+      <c r="B88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88">
+        <v>123456</v>
+      </c>
+      <c r="E88">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89">
+        <v>123456</v>
+      </c>
+      <c r="E89">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>453</v>
+      </c>
+      <c r="B90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90">
+        <v>123456</v>
+      </c>
+      <c r="E90">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>451</v>
+      </c>
+      <c r="B91" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>123456</v>
+      </c>
+      <c r="E91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>452</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92">
+        <v>123456</v>
+      </c>
+      <c r="E92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>123456</v>
+      </c>
+      <c r="E93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>455</v>
+      </c>
+      <c r="B94" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94">
+        <v>123456</v>
+      </c>
+      <c r="E94">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>123456</v>
+      </c>
+      <c r="E95">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96">
+        <v>123456</v>
+      </c>
+      <c r="E96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>452</v>
+      </c>
+      <c r="B97" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97">
+        <v>123456</v>
+      </c>
+      <c r="E97">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>452</v>
+      </c>
+      <c r="B98" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98">
+        <v>123456</v>
+      </c>
+      <c r="E98">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>453</v>
+      </c>
+      <c r="B99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>123456</v>
+      </c>
+      <c r="E99">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>456</v>
+      </c>
+      <c r="B100" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100">
+        <v>123456</v>
+      </c>
+      <c r="E100">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>456</v>
+      </c>
+      <c r="B101" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101">
+        <v>123456</v>
+      </c>
+      <c r="E101">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102">
+        <v>123456</v>
+      </c>
+      <c r="E102">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103">
+        <v>123456</v>
+      </c>
+      <c r="E103">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>458</v>
+      </c>
+      <c r="B104" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104">
+        <v>123456</v>
+      </c>
+      <c r="E104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>456</v>
+      </c>
+      <c r="B105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105">
+        <v>123456</v>
+      </c>
+      <c r="E105">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106">
+        <v>123456</v>
+      </c>
+      <c r="E106">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>454</v>
+      </c>
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>123456</v>
+      </c>
+      <c r="E107">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>455</v>
+      </c>
+      <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108">
+        <v>123456</v>
+      </c>
+      <c r="E108">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>455</v>
+      </c>
+      <c r="B109" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109">
+        <v>123456</v>
+      </c>
+      <c r="E109">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>456</v>
+      </c>
+      <c r="B110" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110">
+        <v>123456</v>
+      </c>
+      <c r="E110">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>456</v>
+      </c>
+      <c r="B111" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111">
+        <v>123456</v>
+      </c>
+      <c r="E111">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112">
+        <v>123456</v>
+      </c>
+      <c r="E112">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>455</v>
+      </c>
+      <c r="B113" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113">
+        <v>123456</v>
+      </c>
+      <c r="E113">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114">
+        <v>123456</v>
+      </c>
+      <c r="E114">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>451</v>
+      </c>
+      <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115">
+        <v>123456</v>
+      </c>
+      <c r="E115">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116">
+        <v>123456</v>
+      </c>
+      <c r="E116">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117">
+        <v>123456</v>
+      </c>
+      <c r="E117">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>454</v>
+      </c>
+      <c r="B118" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118">
+        <v>123456</v>
+      </c>
+      <c r="E118">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>455</v>
+      </c>
+      <c r="B119" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <v>123456</v>
+      </c>
+      <c r="E119">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>456</v>
+      </c>
+      <c r="B120" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120">
+        <v>123456</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>451</v>
+      </c>
+      <c r="B121" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>123456</v>
+      </c>
+      <c r="E121">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>455</v>
+      </c>
+      <c r="B122" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122">
+        <v>123456</v>
+      </c>
+      <c r="E122">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>451</v>
+      </c>
+      <c r="B123" t="s">
+        <v>348</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123">
+        <v>123456</v>
+      </c>
+      <c r="E123">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>452</v>
+      </c>
+      <c r="B124" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124">
+        <v>123456</v>
+      </c>
+      <c r="E124">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>452</v>
+      </c>
+      <c r="B125" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125">
+        <v>123456</v>
+      </c>
+      <c r="E125">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>454</v>
+      </c>
+      <c r="B126" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126">
+        <v>123456</v>
+      </c>
+      <c r="E126">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>452</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>123456</v>
+      </c>
+      <c r="E127">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128">
+        <v>123456</v>
+      </c>
+      <c r="E128">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>454</v>
+      </c>
+      <c r="B129" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129">
+        <v>123456</v>
+      </c>
+      <c r="E129">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>454</v>
+      </c>
+      <c r="B130" t="s">
+        <v>355</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130">
+        <v>123456</v>
+      </c>
+      <c r="E130">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>452</v>
+      </c>
+      <c r="B131" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131">
+        <v>123456</v>
+      </c>
+      <c r="E131">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>453</v>
+      </c>
+      <c r="B132" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132">
+        <v>123456</v>
+      </c>
+      <c r="E132">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>451</v>
+      </c>
+      <c r="B133" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133">
+        <v>123456</v>
+      </c>
+      <c r="E133">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>454</v>
+      </c>
+      <c r="B134" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134">
+        <v>123456</v>
+      </c>
+      <c r="E134">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>452</v>
+      </c>
+      <c r="B135" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135">
+        <v>123456</v>
+      </c>
+      <c r="E135">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" t="s">
+        <v>361</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136">
+        <v>123456</v>
+      </c>
+      <c r="E136">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>452</v>
+      </c>
+      <c r="B137" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137">
+        <v>123456</v>
+      </c>
+      <c r="E137">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>451</v>
+      </c>
+      <c r="B138" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138">
+        <v>123456</v>
+      </c>
+      <c r="E138">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>456</v>
+      </c>
+      <c r="B139" t="s">
+        <v>364</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139">
+        <v>123456</v>
+      </c>
+      <c r="E139">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140">
+        <v>123456</v>
+      </c>
+      <c r="E140">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141">
+        <v>123456</v>
+      </c>
+      <c r="E141">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>453</v>
+      </c>
+      <c r="B142" t="s">
+        <v>367</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142">
+        <v>123456</v>
+      </c>
+      <c r="E142">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143">
+        <v>123456</v>
+      </c>
+      <c r="E143">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>455</v>
+      </c>
+      <c r="B144" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144">
+        <v>123456</v>
+      </c>
+      <c r="E144">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>452</v>
+      </c>
+      <c r="B145" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145">
+        <v>123456</v>
+      </c>
+      <c r="E145">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>451</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146">
+        <v>123456</v>
+      </c>
+      <c r="E146">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147">
+        <v>123456</v>
+      </c>
+      <c r="E147">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>453</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148">
+        <v>123456</v>
+      </c>
+      <c r="E148">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>451</v>
+      </c>
+      <c r="B149" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149">
+        <v>123456</v>
+      </c>
+      <c r="E149">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>456</v>
+      </c>
+      <c r="B150" t="s">
+        <v>375</v>
+      </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150">
+        <v>123456</v>
+      </c>
+      <c r="E150">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>454</v>
+      </c>
+      <c r="B151" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151">
+        <v>123456</v>
+      </c>
+      <c r="E151">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>454</v>
+      </c>
+      <c r="B152" t="s">
+        <v>377</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152">
+        <v>123456</v>
+      </c>
+      <c r="E152">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153">
+        <v>123456</v>
+      </c>
+      <c r="E153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>451</v>
+      </c>
+      <c r="B154" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154">
+        <v>123456</v>
+      </c>
+      <c r="E154">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>454</v>
+      </c>
+      <c r="B155" t="s">
+        <v>380</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155">
+        <v>123456</v>
+      </c>
+      <c r="E155">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>456</v>
+      </c>
+      <c r="B156" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156">
+        <v>123456</v>
+      </c>
+      <c r="E156">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>451</v>
+      </c>
+      <c r="B157" t="s">
+        <v>382</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157">
+        <v>123456</v>
+      </c>
+      <c r="E157">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158">
+        <v>123456</v>
+      </c>
+      <c r="E158">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>455</v>
+      </c>
+      <c r="B159" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159">
+        <v>123456</v>
+      </c>
+      <c r="E159">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>456</v>
+      </c>
+      <c r="B160" t="s">
+        <v>385</v>
+      </c>
+      <c r="C160" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160">
+        <v>123456</v>
+      </c>
+      <c r="E160">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" t="s">
+        <v>386</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161">
+        <v>123456</v>
+      </c>
+      <c r="E161">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" t="s">
+        <v>387</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162">
+        <v>123456</v>
+      </c>
+      <c r="E162">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>455</v>
+      </c>
+      <c r="B163" t="s">
+        <v>388</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163">
+        <v>123456</v>
+      </c>
+      <c r="E163">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>453</v>
+      </c>
+      <c r="B164" t="s">
+        <v>389</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164">
+        <v>123456</v>
+      </c>
+      <c r="E164">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>451</v>
+      </c>
+      <c r="B165" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165">
+        <v>123456</v>
+      </c>
+      <c r="E165">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>453</v>
+      </c>
+      <c r="B166" t="s">
+        <v>391</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166">
+        <v>123456</v>
+      </c>
+      <c r="E166">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>451</v>
+      </c>
+      <c r="B167" t="s">
+        <v>392</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167">
+        <v>123456</v>
+      </c>
+      <c r="E167">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168">
+        <v>123456</v>
+      </c>
+      <c r="E168">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>453</v>
+      </c>
+      <c r="B169" t="s">
+        <v>394</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169">
+        <v>123456</v>
+      </c>
+      <c r="E169">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>456</v>
+      </c>
+      <c r="B170" t="s">
+        <v>395</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170">
+        <v>123456</v>
+      </c>
+      <c r="E170">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>460</v>
+      </c>
+      <c r="B171" t="s">
+        <v>396</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171">
+        <v>123456</v>
+      </c>
+      <c r="E171">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>451</v>
+      </c>
+      <c r="B172" t="s">
+        <v>397</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172">
+        <v>123456</v>
+      </c>
+      <c r="E172">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>461</v>
+      </c>
+      <c r="B173" t="s">
+        <v>398</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173">
+        <v>123456</v>
+      </c>
+      <c r="E173">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>454</v>
+      </c>
+      <c r="B174" t="s">
+        <v>399</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174">
+        <v>123456</v>
+      </c>
+      <c r="E174">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>454</v>
+      </c>
+      <c r="B175" t="s">
+        <v>400</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175">
+        <v>123456</v>
+      </c>
+      <c r="E175">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>451</v>
+      </c>
+      <c r="B176" t="s">
+        <v>401</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176">
+        <v>123456</v>
+      </c>
+      <c r="E176">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>456</v>
+      </c>
+      <c r="B177" t="s">
+        <v>402</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177">
+        <v>123456</v>
+      </c>
+      <c r="E177">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>456</v>
+      </c>
+      <c r="B178" t="s">
+        <v>403</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178">
+        <v>123456</v>
+      </c>
+      <c r="E178">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>454</v>
+      </c>
+      <c r="B179" t="s">
+        <v>404</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179">
+        <v>123456</v>
+      </c>
+      <c r="E179">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>452</v>
+      </c>
+      <c r="B180" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180">
+        <v>123456</v>
+      </c>
+      <c r="E180">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>453</v>
+      </c>
+      <c r="B181" t="s">
+        <v>406</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181">
+        <v>123456</v>
+      </c>
+      <c r="E181">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>451</v>
+      </c>
+      <c r="B182" t="s">
+        <v>407</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182">
+        <v>123456</v>
+      </c>
+      <c r="E182">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>452</v>
+      </c>
+      <c r="B183" t="s">
+        <v>408</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183">
+        <v>123456</v>
+      </c>
+      <c r="E183">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>456</v>
+      </c>
+      <c r="B184" t="s">
+        <v>409</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184">
+        <v>123456</v>
+      </c>
+      <c r="E184">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>455</v>
+      </c>
+      <c r="B185" t="s">
+        <v>410</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185">
+        <v>123456</v>
+      </c>
+      <c r="E185">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>456</v>
+      </c>
+      <c r="B186" t="s">
+        <v>411</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186">
+        <v>123456</v>
+      </c>
+      <c r="E186">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>452</v>
+      </c>
+      <c r="B187" t="s">
+        <v>412</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187">
+        <v>123456</v>
+      </c>
+      <c r="E187">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>454</v>
+      </c>
+      <c r="B188" t="s">
+        <v>413</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188">
+        <v>123456</v>
+      </c>
+      <c r="E188">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>453</v>
+      </c>
+      <c r="B189" t="s">
+        <v>414</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189">
+        <v>123456</v>
+      </c>
+      <c r="E189">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>458</v>
+      </c>
+      <c r="B190" t="s">
+        <v>415</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190">
+        <v>123456</v>
+      </c>
+      <c r="E190">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>455</v>
+      </c>
+      <c r="B191" t="s">
+        <v>416</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191">
+        <v>123456</v>
+      </c>
+      <c r="E191">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>452</v>
+      </c>
+      <c r="B192" t="s">
+        <v>417</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192">
+        <v>123456</v>
+      </c>
+      <c r="E192">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>456</v>
+      </c>
+      <c r="B193" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193">
+        <v>123456</v>
+      </c>
+      <c r="E193">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>461</v>
+      </c>
+      <c r="B194" t="s">
+        <v>419</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194">
+        <v>123456</v>
+      </c>
+      <c r="E194">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>456</v>
+      </c>
+      <c r="B195" t="s">
+        <v>420</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195">
+        <v>123456</v>
+      </c>
+      <c r="E195">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>451</v>
+      </c>
+      <c r="B196" t="s">
+        <v>421</v>
+      </c>
+      <c r="C196" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196">
+        <v>123456</v>
+      </c>
+      <c r="E196">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>452</v>
+      </c>
+      <c r="B197" t="s">
+        <v>422</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197">
+        <v>123456</v>
+      </c>
+      <c r="E197">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>452</v>
+      </c>
+      <c r="B198" t="s">
+        <v>423</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198">
+        <v>123456</v>
+      </c>
+      <c r="E198">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>453</v>
+      </c>
+      <c r="B199" t="s">
+        <v>424</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199">
+        <v>123456</v>
+      </c>
+      <c r="E199">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>454</v>
+      </c>
+      <c r="B200" t="s">
+        <v>425</v>
+      </c>
+      <c r="C200" t="s">
+        <v>201</v>
+      </c>
+      <c r="D200">
+        <v>123456</v>
+      </c>
+      <c r="E200">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>454</v>
+      </c>
+      <c r="B201" t="s">
+        <v>426</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201">
+        <v>123456</v>
+      </c>
+      <c r="E201">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>454</v>
+      </c>
+      <c r="B202" t="s">
+        <v>427</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202">
+        <v>123456</v>
+      </c>
+      <c r="E202">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>454</v>
+      </c>
+      <c r="B203" t="s">
+        <v>428</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203">
+        <v>123456</v>
+      </c>
+      <c r="E203">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>454</v>
+      </c>
+      <c r="B204" t="s">
+        <v>429</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204">
+        <v>123456</v>
+      </c>
+      <c r="E204">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>451</v>
+      </c>
+      <c r="B205" t="s">
+        <v>430</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205">
+        <v>123456</v>
+      </c>
+      <c r="E205">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>454</v>
+      </c>
+      <c r="B206" t="s">
+        <v>431</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206">
+        <v>123456</v>
+      </c>
+      <c r="E206">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>451</v>
+      </c>
+      <c r="B207" t="s">
+        <v>432</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207">
+        <v>123456</v>
+      </c>
+      <c r="E207">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>453</v>
+      </c>
+      <c r="B208" t="s">
+        <v>433</v>
+      </c>
+      <c r="C208" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208">
+        <v>123456</v>
+      </c>
+      <c r="E208">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>454</v>
+      </c>
+      <c r="B209" t="s">
+        <v>434</v>
+      </c>
+      <c r="C209" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209">
+        <v>123456</v>
+      </c>
+      <c r="E209">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>456</v>
+      </c>
+      <c r="B210" t="s">
+        <v>435</v>
+      </c>
+      <c r="C210" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210">
+        <v>123456</v>
+      </c>
+      <c r="E210">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>452</v>
+      </c>
+      <c r="B211" t="s">
+        <v>436</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211">
+        <v>123456</v>
+      </c>
+      <c r="E211">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>454</v>
+      </c>
+      <c r="B212" t="s">
+        <v>437</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212">
+        <v>123456</v>
+      </c>
+      <c r="E212">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>456</v>
+      </c>
+      <c r="B213" t="s">
+        <v>438</v>
+      </c>
+      <c r="C213" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213">
+        <v>123456</v>
+      </c>
+      <c r="E213">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>454</v>
+      </c>
+      <c r="B214" t="s">
+        <v>439</v>
+      </c>
+      <c r="C214" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214">
+        <v>123456</v>
+      </c>
+      <c r="E214">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>451</v>
+      </c>
+      <c r="B215" t="s">
+        <v>440</v>
+      </c>
+      <c r="C215" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215">
+        <v>123456</v>
+      </c>
+      <c r="E215">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" t="s">
+        <v>441</v>
+      </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216">
+        <v>123456</v>
+      </c>
+      <c r="E216">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>456</v>
+      </c>
+      <c r="B217" t="s">
+        <v>442</v>
+      </c>
+      <c r="C217" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217">
+        <v>123456</v>
+      </c>
+      <c r="E217">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>458</v>
+      </c>
+      <c r="B218" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218">
+        <v>123456</v>
+      </c>
+      <c r="E218">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>455</v>
+      </c>
+      <c r="B219" t="s">
+        <v>444</v>
+      </c>
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219">
+        <v>123456</v>
+      </c>
+      <c r="E219">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>456</v>
+      </c>
+      <c r="B220" t="s">
+        <v>445</v>
+      </c>
+      <c r="C220" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220">
+        <v>123456</v>
+      </c>
+      <c r="E220">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>453</v>
+      </c>
+      <c r="B221" t="s">
+        <v>446</v>
+      </c>
+      <c r="C221" t="s">
+        <v>222</v>
+      </c>
+      <c r="D221">
+        <v>123456</v>
+      </c>
+      <c r="E221">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>452</v>
+      </c>
+      <c r="B222" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222">
+        <v>123456</v>
+      </c>
+      <c r="E222">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>456</v>
+      </c>
+      <c r="B223" t="s">
+        <v>448</v>
+      </c>
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223">
+        <v>123456</v>
+      </c>
+      <c r="E223">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" t="s">
+        <v>449</v>
+      </c>
+      <c r="C224" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224">
+        <v>123456</v>
+      </c>
+      <c r="E224">
         <v>48</v>
       </c>
     </row>
